--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44414</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
         <v>31000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
         <v>31000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
         <v>31000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44414</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
         <v>31000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L2" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M2" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L3" t="n">
         <v>31000</v>
       </c>
-      <c r="L3" t="n">
-        <v>32000</v>
-      </c>
       <c r="M3" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
         <v>31000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
         <v>31000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L3" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M3" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L4" t="n">
         <v>31000</v>
       </c>
-      <c r="L4" t="n">
-        <v>32000</v>
-      </c>
       <c r="M4" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44414</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
         <v>31000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L3" t="n">
         <v>31000</v>
       </c>
-      <c r="L3" t="n">
-        <v>32000</v>
-      </c>
       <c r="M3" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L4" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L3" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M3" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L4" t="n">
         <v>31000</v>
       </c>
-      <c r="L4" t="n">
-        <v>32000</v>
-      </c>
       <c r="M4" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L3" t="n">
         <v>31000</v>
       </c>
-      <c r="L3" t="n">
-        <v>32000</v>
-      </c>
       <c r="M3" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L4" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
         <v>31000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L3" t="n">
         <v>31000</v>
       </c>
-      <c r="L3" t="n">
-        <v>32000</v>
-      </c>
       <c r="M3" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L4" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L3" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M3" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L4" t="n">
         <v>31000</v>
       </c>
-      <c r="L4" t="n">
-        <v>32000</v>
-      </c>
       <c r="M4" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L3" t="n">
         <v>31000</v>
       </c>
-      <c r="L3" t="n">
-        <v>32000</v>
-      </c>
       <c r="M3" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L4" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44414</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
         <v>31000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
         <v>31000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L2" t="n">
         <v>31000</v>
       </c>
-      <c r="L2" t="n">
-        <v>32000</v>
-      </c>
       <c r="M2" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L3" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M3" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L2" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M2" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L4" t="n">
         <v>31000</v>
       </c>
-      <c r="L4" t="n">
-        <v>32000</v>
-      </c>
       <c r="M4" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L2" t="n">
         <v>31000</v>
       </c>
-      <c r="L2" t="n">
-        <v>32000</v>
-      </c>
       <c r="M2" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
         <v>31000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L4" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L2" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M2" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L3" t="n">
         <v>31000</v>
       </c>
-      <c r="L3" t="n">
-        <v>32000</v>
-      </c>
       <c r="M3" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L2" t="n">
         <v>31000</v>
       </c>
-      <c r="L2" t="n">
-        <v>32000</v>
-      </c>
       <c r="M2" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L3" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M3" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44414</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
         <v>31000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L3" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M3" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L4" t="n">
         <v>31000</v>
       </c>
-      <c r="L4" t="n">
-        <v>32000</v>
-      </c>
       <c r="M4" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L2" t="n">
         <v>31000</v>
       </c>
-      <c r="L2" t="n">
-        <v>32000</v>
-      </c>
       <c r="M2" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44414</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
         <v>31000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L4" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L2" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M2" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44414</v>
+        <v>44379</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K3" t="n">
         <v>31000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L4" t="n">
         <v>31000</v>
       </c>
-      <c r="L4" t="n">
-        <v>32000</v>
-      </c>
       <c r="M4" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44414</v>
+        <v>44827</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L2" t="n">
         <v>31000</v>
       </c>
-      <c r="L2" t="n">
-        <v>32000</v>
-      </c>
       <c r="M2" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L4" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L2" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M2" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L3" t="n">
         <v>31000</v>
       </c>
-      <c r="L3" t="n">
-        <v>32000</v>
-      </c>
       <c r="M3" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L2" t="n">
         <v>31000</v>
       </c>
-      <c r="L2" t="n">
-        <v>32000</v>
-      </c>
       <c r="M2" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44827</v>
+        <v>44414</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L3" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M3" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44414</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
         <v>31000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L2" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M2" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L4" t="n">
         <v>31000</v>
       </c>
-      <c r="L4" t="n">
-        <v>32000</v>
-      </c>
       <c r="M4" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Terminal La Palmera de La Serena - Arveja Verde.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44379</v>
+        <v>44827</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L2" t="n">
         <v>31000</v>
       </c>
-      <c r="L2" t="n">
-        <v>32000</v>
-      </c>
       <c r="M2" t="n">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44827</v>
+        <v>44379</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L4" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
